--- a/data/trans_camb/P07_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P07_R-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.46666959412657</v>
+        <v>-12.64759915551015</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.25148277892668</v>
+        <v>-12.50032014562948</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.752729645547511</v>
+        <v>-4.174495933906685</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-12.14268537821605</v>
+        <v>-12.24886511641564</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-16.69056057817665</v>
+        <v>-16.56371319861974</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.07161972101975</v>
+        <v>-10.65880384610027</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-12.51894559228544</v>
+        <v>-12.93862255376727</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-14.82570620585701</v>
+        <v>-14.42111425528102</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.296928214153187</v>
+        <v>-7.113053462091473</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-3.472314154711602</v>
+        <v>-3.467524379743921</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.027417957551547</v>
+        <v>-3.422362492400456</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.469712590317587</v>
+        <v>7.230315141541133</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.326987171486683</v>
+        <v>-3.332005373633471</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-7.621018079274545</v>
+        <v>-7.895069310145733</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.32227819677826</v>
+        <v>-1.280404720417239</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-6.141085094663199</v>
+        <v>-6.425978761218546</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-8.508338542178615</v>
+        <v>-8.296708440833337</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.06536428202186394</v>
+        <v>0.115499096243392</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3911074992293361</v>
+        <v>-0.3903117104048295</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3795554992545433</v>
+        <v>-0.3840799372786776</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1178965633279568</v>
+        <v>-0.1313379589268973</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2659255995986876</v>
+        <v>-0.2632211409508312</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3580370716687369</v>
+        <v>-0.3607228138822571</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2443202950812284</v>
+        <v>-0.2317245783775897</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3119353330783639</v>
+        <v>-0.3203586786377268</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3694499842358349</v>
+        <v>-0.3604499994602879</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1817913467081415</v>
+        <v>-0.1768051614072807</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.129404050760854</v>
+        <v>-0.1307711907149448</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1164300642049923</v>
+        <v>-0.1292679690887593</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2799123377683636</v>
+        <v>0.2717272638288493</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.07654935944914271</v>
+        <v>-0.07830382967998449</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1820079906265962</v>
+        <v>-0.1915792815664469</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03392169013833697</v>
+        <v>-0.03083615417561024</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1692587419176232</v>
+        <v>-0.177498056625284</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2311120851511829</v>
+        <v>-0.2261697653736713</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.001798444197937666</v>
+        <v>0.003095334187943161</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.8605292494733713</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.588821271841634</v>
+        <v>4.588821271841629</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.6174095815900449</v>
@@ -878,7 +878,7 @@
         <v>-2.733997494062121</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>3.651511720113696</v>
+        <v>3.651511720113692</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.170966260263175</v>
+        <v>-2.42357371430269</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.974067976142422</v>
+        <v>-4.018430747699122</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.235827740573958</v>
+        <v>1.401029240563415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.074247204129226</v>
+        <v>-3.240205617512649</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-8.992879723999666</v>
+        <v>-8.677297747106365</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.545897973235306</v>
+        <v>-1.675201108428611</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.353951971270234</v>
+        <v>-1.585728833478992</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.979974767926964</v>
+        <v>-5.013214885482081</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.186006064735394</v>
+        <v>1.267328666017924</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.413054104234835</v>
+        <v>4.17371023215239</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.371380858647824</v>
+        <v>2.239324684186036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.829073089158274</v>
+        <v>8.350993318267408</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.764614326079355</v>
+        <v>4.567076602985969</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-1.139965049076202</v>
+        <v>-0.9640344511162188</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.600171755530041</v>
+        <v>5.555704629850328</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.658277481811644</v>
+        <v>3.665964235467763</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.203323196372828</v>
+        <v>0.2592139214466406</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.889075599985258</v>
+        <v>6.289175829959389</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.05760579494677297</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3071861850075081</v>
+        <v>0.3071861850075077</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02367343594876416</v>
@@ -983,7 +983,7 @@
         <v>-0.1336333035465289</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.178479890767074</v>
+        <v>0.1784798907670739</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.131927079359228</v>
+        <v>-0.1539155862383676</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2455412182955647</v>
+        <v>-0.246633228960382</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.07171775077367812</v>
+        <v>0.08416258553205958</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1106370522855463</v>
+        <v>-0.1151511679684585</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3233320046873628</v>
+        <v>-0.3165507619755464</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05229872447204846</v>
+        <v>-0.05932657972922101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06344300530930035</v>
+        <v>-0.07431007288393565</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2333196339749488</v>
+        <v>-0.2355422636635377</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05294185227819634</v>
+        <v>0.05614554070470858</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3295623297173178</v>
+        <v>0.3059412799551881</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.180614322415508</v>
+        <v>0.1636922781845934</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5825859282226866</v>
+        <v>0.6167657901124894</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1955177974075668</v>
+        <v>0.1878006580804575</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04759745233177987</v>
+        <v>-0.04026851096009613</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2380499884734377</v>
+        <v>0.2298846920124299</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1945497001343509</v>
+        <v>0.1920356053101865</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.01118952998989589</v>
+        <v>0.01314098845630178</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3060198687836443</v>
+        <v>0.3204727411070569</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.046514023059718</v>
+        <v>0.8733198783083851</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.080020928632461</v>
+        <v>-2.313710559359894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1076765650499208</v>
+        <v>-0.2348793734583078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.669994101930036</v>
+        <v>-5.168876030332259</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.736228943805935</v>
+        <v>-5.834183416994454</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.643320413058968</v>
+        <v>-3.865866469157793</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.014253425603683</v>
+        <v>-0.9449878309162915</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.809349086683978</v>
+        <v>-2.877910719031195</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.7140220980232642</v>
+        <v>-0.8364403753301086</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.99809171167564</v>
+        <v>7.473974494905662</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.58571742533608</v>
+        <v>3.738030542523412</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.352795349872369</v>
+        <v>5.565927643337241</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.301623123489147</v>
+        <v>2.558226687631889</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.279497695979739</v>
+        <v>1.996943132229461</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.880725832179892</v>
+        <v>2.527306472391544</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.822189475588501</v>
+        <v>4.193643814312032</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.06296249095869</v>
+        <v>2.042974992082773</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.569670082556604</v>
+        <v>3.373655182050983</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.07547675950485483</v>
+        <v>0.07068590987606357</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1635052804972033</v>
+        <v>-0.1900043751563216</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.005301294550070128</v>
+        <v>-0.02544749321787977</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2401026450375945</v>
+        <v>-0.2296193325447994</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2506418641582427</v>
+        <v>-0.2514026237790932</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.158635410097569</v>
+        <v>-0.1685324109112134</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06271506310090567</v>
+        <v>-0.05525069022437772</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1660001012084096</v>
+        <v>-0.1641367887912837</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04124814904899407</v>
+        <v>-0.0484861725976388</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7072528862437149</v>
+        <v>0.7405121944567855</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.373590024582641</v>
+        <v>0.3884024122180441</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5454332247042253</v>
+        <v>0.5703971717641902</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1189968631022603</v>
+        <v>0.1279991837656085</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1254267011863987</v>
+        <v>0.1054806488111815</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1529742246076378</v>
+        <v>0.1333568847726758</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2564546567278572</v>
+        <v>0.288244433551884</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1404140893528898</v>
+        <v>0.1430534334674918</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2432993488771532</v>
+        <v>0.231153010379488</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.351962889557742</v>
+        <v>-1.53975740973828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.615261359492313</v>
+        <v>-1.795012761320289</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.835534024040542</v>
+        <v>-0.7020874677851286</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.80604594412251</v>
+        <v>-2.135073537407884</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.728497883191935</v>
+        <v>-3.248291376469356</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.144863479948844</v>
+        <v>-4.088907641507493</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01326205314640705</v>
+        <v>0.2725940138452433</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.6808144754758761</v>
+        <v>-0.7892154973219063</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.9160967706062459</v>
+        <v>-0.8593626185153198</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.688984834967074</v>
+        <v>7.172528476068521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.566098854304619</v>
+        <v>6.148423355648185</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.862819488083371</v>
+        <v>6.353271847640997</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.95652545250765</v>
+        <v>8.755323460053873</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.599216721858346</v>
+        <v>7.159877414130025</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.381788795108033</v>
+        <v>4.223863680787588</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>6.864932028100758</v>
+        <v>6.75326145217184</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.000527638259364</v>
+        <v>5.777107604752567</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.356395690818237</v>
+        <v>4.451614632137693</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.122056183199794</v>
+        <v>-0.1483690033632933</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1521013222626027</v>
+        <v>-0.1610541320230665</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.07486800859269352</v>
+        <v>-0.06431640846852842</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1195991567977197</v>
+        <v>-0.1245799166495605</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1615519448049592</v>
+        <v>-0.1898837242121589</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2287344860438306</v>
+        <v>-0.2344619837394485</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0153618850101679</v>
+        <v>0.01845044619416627</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.06742551304456038</v>
+        <v>-0.05792355273995667</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06658864266410791</v>
+        <v>-0.06350999074418384</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8650473715746144</v>
+        <v>0.8941030101238406</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8796517944329234</v>
+        <v>0.8128397328257451</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7827196522389173</v>
+        <v>0.8070248272631361</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7576814347577343</v>
+        <v>0.7458429330243936</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6542393946319225</v>
+        <v>0.6144929926762143</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3810625113813822</v>
+        <v>0.3673906125515272</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6850245275135572</v>
+        <v>0.6795171708005989</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5917256577470312</v>
+        <v>0.578085891318643</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4450105675688254</v>
+        <v>0.4560700141557127</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-4.490253441681577</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.039727359335338</v>
+        <v>-4.03972735933534</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.1866911864235238</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6523021114580914</v>
+        <v>-0.7442606796727902</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.56374445455041</v>
+        <v>-1.615529125825723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.163162463020185</v>
+        <v>0.05721922359110487</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.820924395425472</v>
+        <v>-3.910103195030795</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-6.498576471436401</v>
+        <v>-6.563666473376001</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.080589732587812</v>
+        <v>-6.153145917463424</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.566620719024652</v>
+        <v>-1.646049125687686</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.602453307688967</v>
+        <v>-3.414105468936199</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.458803452149143</v>
+        <v>-2.35722158596978</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.208427405175643</v>
+        <v>3.019765968403817</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.040426010000284</v>
+        <v>1.952681776029806</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.762437187524047</v>
+        <v>3.595026506059044</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5255505101772324</v>
+        <v>0.7530610102594645</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.190278729872696</v>
+        <v>-2.324577989350052</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.101222477322789</v>
+        <v>-2.184575871957364</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.432573148138049</v>
+        <v>1.261262930146269</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.7084739484757104</v>
+        <v>-0.6201035188345563</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2873712344319807</v>
+        <v>0.2297916925222718</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.158455063099854</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1425565977384937</v>
+        <v>-0.1425565977384938</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.008497501320917209</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04072333150766538</v>
+        <v>-0.0452685095944205</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09516672473338721</v>
+        <v>-0.09805696948393508</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.007787136296851814</v>
+        <v>0.003853769984131325</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1308021490111659</v>
+        <v>-0.1338688000914779</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2239560626251294</v>
+        <v>-0.2261642197627327</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2060486277860345</v>
+        <v>-0.2056608221916249</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.06938977022135659</v>
+        <v>-0.0733300469473873</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.157687338919121</v>
+        <v>-0.1510073652157845</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1082766165818933</v>
+        <v>-0.1035379543949066</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.225598752755495</v>
+        <v>0.2055100550477199</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1398915969833845</v>
+        <v>0.1324337493211398</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2563566339461139</v>
+        <v>0.2474471375475404</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01929485788367225</v>
+        <v>0.02581285721019508</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.08078279231858448</v>
+        <v>-0.08828898639453277</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.07775027451444771</v>
+        <v>-0.08098152001041334</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.0669540178055593</v>
+        <v>0.06040687521032038</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.03226050154216045</v>
+        <v>-0.02930283671281794</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.01323299639586949</v>
+        <v>0.009941327508838622</v>
       </c>
     </row>
     <row r="34">
